--- a/biology/Microbiologie/Sylvain_Moineau/Sylvain_Moineau.xlsx
+++ b/biology/Microbiologie/Sylvain_Moineau/Sylvain_Moineau.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sylvain Moineau est un microbiologiste, chercheur et professeur québécois né en 1965.  Il se distingue par ses travaux sur les bactériophages et le système CRISPR-Cas9[1]. Sylvain Moineau est titulaire de la Chaire de recherche du Canada sur les bactériophages à l'Université Laval[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sylvain Moineau est un microbiologiste, chercheur et professeur québécois né en 1965.  Il se distingue par ses travaux sur les bactériophages et le système CRISPR-Cas9. Sylvain Moineau est titulaire de la Chaire de recherche du Canada sur les bactériophages à l'Université Laval.
 </t>
         </is>
       </c>
@@ -511,13 +523,15 @@
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2019 - Prix Marie-Victorin du Gouvernement du Québec[3]
-2018 - Prix Acfas Léo-Pariseau, pour les sciences de la santé[4]
-2017 - Officier de l’Ordre du Canada du Gouvernement du Canada[5]
-2016 - Médaille Flavelle de la Société royale du Canada[6]
-2016 - Médaille Gloire de l'Escolle[7]</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2019 - Prix Marie-Victorin du Gouvernement du Québec
+2018 - Prix Acfas Léo-Pariseau, pour les sciences de la santé
+2017 - Officier de l’Ordre du Canada du Gouvernement du Canada
+2016 - Médaille Flavelle de la Société royale du Canada
+2016 - Médaille Gloire de l'Escolle</t>
         </is>
       </c>
     </row>
